--- a/Dashboards/RIOT.xlsx
+++ b/Dashboards/RIOT.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,12 +58,12 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
+    <x:t>Mister D</x:t>
+  </x:si>
+  <x:si>
     <x:t>Eazy clap</x:t>
   </x:si>
   <x:si>
-    <x:t>Mister D</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hurb99</x:t>
   </x:si>
   <x:si>
@@ -214,7 +214,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>10,5 (3952/376)</x:t>
+    <x:t>10,8 (4178/388)</x:t>
   </x:si>
   <x:si>
     <x:t>0,0 (0/0)</x:t>
@@ -238,7 +238,7 @@
     <x:t>9,2 (1338/145)</x:t>
   </x:si>
   <x:si>
-    <x:t>11,0 (176/16)</x:t>
+    <x:t>14,4 (402/28)</x:t>
   </x:si>
   <x:si>
     <x:t>9,2 (979/106)</x:t>
@@ -274,7 +274,7 @@
     <x:t>3,4 (41/12)</x:t>
   </x:si>
   <x:si>
-    <x:t>7,6 (2867/377)</x:t>
+    <x:t>7,6 (3211/422)</x:t>
   </x:si>
   <x:si>
     <x:t>10,6 (728/69)</x:t>
@@ -295,7 +295,52 @@
     <x:t>9,9 (148/15)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6 (146/26)</x:t>
+    <x:t>6,9 (490/71)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,0 (3900/654)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (115/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (298/68)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,3 (133/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,5 (298/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,2 (122/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,6 (316/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2 (523/124)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (56/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,1 (547/77)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,3 (308/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,2 (246/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,8 (299/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,9 (429/87)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,0 (210/15)</x:t>
   </x:si>
   <x:si>
     <x:t>6,0 (125/21)</x:t>
@@ -313,49 +358,7 @@
     <x:t>14,8 (74/5)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,8 (3690/639)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (115/30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,4 (298/68)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,3 (133/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,5 (298/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,2 (122/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,6 (316/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,2 (523/124)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (56/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,1 (547/77)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,3 (308/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,2 (246/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,8 (299/34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,9 (429/87)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,6 (5592/1212)</x:t>
+    <x:t>4,6 (5881/1279)</x:t>
   </x:si>
   <x:si>
     <x:t>6,0 (596/100)</x:t>
@@ -397,7 +400,10 @@
     <x:t>4,9 (252/51)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,5 (2908/648)</x:t>
+    <x:t>4,3 (289/67)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,5 (3014/670)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (76/54)</x:t>
@@ -439,7 +445,10 @@
     <x:t>4,8 (135/28)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,3 (4350/1008)</x:t>
+    <x:t>4,8 (106/22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (4654/1064)</x:t>
   </x:si>
   <x:si>
     <x:t>3,0 (285/96)</x:t>
@@ -472,7 +481,10 @@
     <x:t>5,5 (131/24)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4 (5311/1571)</x:t>
+    <x:t>5,4 (304/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (6040/1701)</x:t>
   </x:si>
   <x:si>
     <x:t>3,1 (37/12)</x:t>
@@ -508,6 +520,36 @@
     <x:t>5,7 (780/138)</x:t>
   </x:si>
   <x:si>
+    <x:t>5,6 (729/130)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (1663/499)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,2 (43/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (151/72)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (204/83)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,1 (223/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (208/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2 (429/101)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (191/81)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,9 (214/44)</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,3 (1082/326)</x:t>
   </x:si>
   <x:si>
@@ -523,40 +565,16 @@
     <x:t>4,9 (128/26)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,2 (587/183)</x:t>
+    <x:t>3,2 (599/189)</x:t>
   </x:si>
   <x:si>
     <x:t>3,1 (564/180)</x:t>
   </x:si>
   <x:si>
-    <x:t>7,7 (23/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (1449/455)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,2 (43/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (151/72)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (204/83)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,1 (223/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6 (208/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,2 (429/101)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (191/81)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (2004/707)</x:t>
+    <x:t>3,9 (35/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (2027/719)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (117/45)</x:t>
@@ -598,6 +616,9 @@
     <x:t>3,9 (305/78)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,9 (23/12)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,5 (932/370)</x:t>
   </x:si>
   <x:si>
@@ -631,6 +652,45 @@
     <x:t>2,6 (142/55)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,5 (3899/1580)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (191/85)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (215/108)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (204/75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (359/215)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (596/201)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (157/97)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (410/217)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (208/99)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (277/117)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (278/133)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,3 (682/160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (322/73)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,5 (1288/522)</x:t>
   </x:si>
   <x:si>
@@ -652,7 +712,7 @@
     <x:t>2,5 (360/145)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (1531/632)</x:t>
+    <x:t>2,4 (1538/646)</x:t>
   </x:si>
   <x:si>
     <x:t>2,4 (235/99)</x:t>
@@ -682,46 +742,7 @@
     <x:t>2,0 (167/85)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (13/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (3699/1528)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (191/85)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (215/108)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (204/75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (359/215)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (596/201)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (157/97)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (410/217)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (208/99)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (277/117)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (278/133)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,3 (682/160)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,8 (122/21)</x:t>
+    <x:t>0,7 (20/27)</x:t>
   </x:si>
   <x:si>
     <x:t>2,3 (4889/2092)</x:t>
@@ -1390,52 +1411,52 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>27372.5034285714</x:v>
+        <x:v>31483.251886905</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1822413.25729167</x:v>
+        <x:v>880621.671354166</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
-        <x:v>44721.8700208333</x:v>
+        <x:v>2727.72416666662</x:v>
       </x:c>
       <x:c r="F2" s="16" t="n">
-        <x:v>32565.4670833331</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="16" t="n">
-        <x:v>4053.08135416661</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="16" t="n">
-        <x:v>30487.5514375002</x:v>
+        <x:v>10583.3689999998</x:v>
       </x:c>
       <x:c r="I2" s="16" t="n">
-        <x:v>6931.60256249993</x:v>
+        <x:v>1893.54585416667</x:v>
       </x:c>
       <x:c r="J2" s="16" t="n">
-        <x:v>44946.4730624999</x:v>
+        <x:v>62040.2821874997</x:v>
       </x:c>
       <x:c r="K2" s="16" t="n">
-        <x:v>54871.8493749998</x:v>
+        <x:v>48286.4560416664</x:v>
       </x:c>
       <x:c r="L2" s="16" t="n">
-        <x:v>17978.615708333</x:v>
+        <x:v>72069.8155416679</x:v>
       </x:c>
       <x:c r="M2" s="16" t="n">
-        <x:v>34278.2345624999</x:v>
+        <x:v>26255.974291667</x:v>
       </x:c>
       <x:c r="N2" s="16" t="n">
-        <x:v>27757.7686875006</x:v>
+        <x:v>4860.29802083317</x:v>
       </x:c>
       <x:c r="O2" s="16" t="n">
-        <x:v>38558.1884583337</x:v>
+        <x:v>43845.115270834</x:v>
       </x:c>
       <x:c r="P2" s="16" t="n">
-        <x:v>30297.6701458327</x:v>
+        <x:v>45662.5281250002</x:v>
       </x:c>
       <x:c r="Q2" s="16" t="n">
-        <x:v>15766.6755416666</x:v>
+        <x:v>60742.5223125007</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>61797.8956041684</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1443,52 +1464,52 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>27069.1164866073</x:v>
+        <x:v>28968.3765446428</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>818823.775749997</x:v>
+        <x:v>1844755.48091667</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
-        <x:v>2727.72416666662</x:v>
+        <x:v>44721.8700208333</x:v>
       </x:c>
       <x:c r="F3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>32565.4670833331</x:v>
       </x:c>
       <x:c r="G3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4053.08135416661</x:v>
       </x:c>
       <x:c r="H3" s="16" t="n">
-        <x:v>10583.3689999998</x:v>
+        <x:v>30487.5514375002</x:v>
       </x:c>
       <x:c r="I3" s="16" t="n">
-        <x:v>1893.54585416667</x:v>
+        <x:v>6931.60256249993</x:v>
       </x:c>
       <x:c r="J3" s="16" t="n">
-        <x:v>62040.2821874997</x:v>
+        <x:v>44946.4730624999</x:v>
       </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>48286.4560416664</x:v>
+        <x:v>54871.8493749998</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>72069.8155416679</x:v>
+        <x:v>17978.615708333</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>26255.974291667</x:v>
+        <x:v>34278.2345624999</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>4860.29802083317</x:v>
+        <x:v>27757.7686875006</x:v>
       </x:c>
       <x:c r="O3" s="16" t="n">
-        <x:v>43845.115270834</x:v>
+        <x:v>38558.1884583337</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>45662.5281250002</x:v>
+        <x:v>30297.6701458327</x:v>
       </x:c>
       <x:c r="Q3" s="16" t="n">
-        <x:v>60742.5223125007</x:v>
+        <x:v>15766.6755416666</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>22342.2236250001</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1496,10 +1517,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>24832.1613854166</x:v>
+        <x:v>27568.9014374999</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>363434.823104167</x:v>
+        <x:v>385328.743520833</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="s"/>
@@ -1529,7 +1550,7 @@
         <x:v>11313.6473333333</x:v>
       </x:c>
       <x:c r="R4" s="16" t="n">
-        <x:v>10171.0106250001</x:v>
+        <x:v>32064.9310416667</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1537,10 +1558,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>17830.4569791669</x:v>
+        <x:v>19021.7879464288</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>2080910.15245834</x:v>
+        <x:v>2097588.78600001</x:v>
       </x:c>
       <x:c r="E5" s="16" t="n">
         <x:v>5430.58885416645</x:v>
@@ -1582,7 +1603,7 @@
         <x:v>22544.9550208331</x:v>
       </x:c>
       <x:c r="R5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>16678.6335416671</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1590,10 +1611,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>17456.4157782736</x:v>
+        <x:v>18402.0873437498</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>740628.55422916</x:v>
+        <x:v>753867.956145826</x:v>
       </x:c>
       <x:c r="E6" s="16" t="n">
         <x:v>14377.4346458331</x:v>
@@ -1635,7 +1656,7 @@
         <x:v>44647.4513124997</x:v>
       </x:c>
       <x:c r="R6" s="16" t="n">
-        <x:v>7845.57118749991</x:v>
+        <x:v>21084.9731041664</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1643,10 +1664,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>16780.7822291667</x:v>
+        <x:v>17759.27203125</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>926472.284020836</x:v>
+        <x:v>940171.141250003</x:v>
       </x:c>
       <x:c r="E7" s="16" t="n">
         <x:v>16270.0001458335</x:v>
@@ -1688,7 +1709,7 @@
         <x:v>4824.4285416666</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13698.8572291668</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1696,10 +1717,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>16375.3061730767</x:v>
+        <x:v>17558.7101073716</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>2127003.40012501</x:v>
+        <x:v>2142387.65127085</x:v>
       </x:c>
       <x:c r="E8" s="16" t="n">
         <x:v>0</x:v>
@@ -1739,7 +1760,7 @@
         <x:v>69615.7247291652</x:v>
       </x:c>
       <x:c r="R8" s="16" t="n">
-        <x:v>9389.96054166695</x:v>
+        <x:v>24774.2116875006</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1874,10 +1895,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>9824.16889880946</x:v>
+        <x:v>10150.3751309523</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>353574.522833332</x:v>
+        <x:v>358141.410083332</x:v>
       </x:c>
       <x:c r="E12" s="16" t="n">
         <x:v>2447.64254166666</x:v>
@@ -1919,7 +1940,7 @@
         <x:v>5516.19591666659</x:v>
       </x:c>
       <x:c r="R12" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4566.88725000009</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
@@ -2065,10 +2086,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>7710.04669047609</x:v>
+        <x:v>7741.1718154761</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>588201.107854165</x:v>
+        <x:v>588636.859604165</x:v>
       </x:c>
       <x:c r="E16" s="16" t="n">
         <x:v>4082.50137499999</x:v>
@@ -2110,7 +2131,7 @@
         <x:v>16240.8825624996</x:v>
       </x:c>
       <x:c r="R16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>435.751750000054</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -2118,10 +2139,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>5760.98786904762</x:v>
+        <x:v>6757.39003720243</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>1095552.8443125</x:v>
+        <x:v>1109502.47466667</x:v>
       </x:c>
       <x:c r="E17" s="16" t="n">
         <x:v>0</x:v>
@@ -2163,7 +2184,7 @@
         <x:v>9092.31622916646</x:v>
       </x:c>
       <x:c r="R17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13949.6303541674</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -2277,10 +2298,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>5068.04110763887</x:v>
+        <x:v>5082.81420486109</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>467151.260083332</x:v>
+        <x:v>467328.537249999</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s"/>
       <x:c r="F20" s="16" t="s"/>
@@ -2318,7 +2339,7 @@
         <x:v>3924.33887500002</x:v>
       </x:c>
       <x:c r="R20" s="16" t="n">
-        <x:v>1142.83983333327</x:v>
+        <x:v>1320.11699999997</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -2428,10 +2449,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>3080.16089583334</x:v>
+        <x:v>3136.76214015153</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>928533.966833334</x:v>
+        <x:v>929156.580520834</x:v>
       </x:c>
       <x:c r="E23" s="16" t="n">
         <x:v>0</x:v>
@@ -2467,7 +2488,7 @@
         <x:v>32707.9722916667</x:v>
       </x:c>
       <x:c r="R23" s="16" t="n">
-        <x:v>1173.7975625</x:v>
+        <x:v>1796.41125000012</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
@@ -3479,93 +3500,93 @@
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
         <x:v>100</x:v>
@@ -3574,57 +3595,57 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -3632,49 +3653,49 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -3682,16 +3703,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
         <x:v>56</x:v>
@@ -3700,42 +3721,42 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
         <x:v>56</x:v>
@@ -3744,145 +3765,145 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>153</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>158</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>161</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
         <x:v>56</x:v>
@@ -3900,31 +3921,31 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -3932,49 +3953,49 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>169</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -3982,28 +4003,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>183</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>185</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>187</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>188</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
         <x:v>56</x:v>
@@ -4012,16 +4033,16 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>192</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
         <x:v>56</x:v>
@@ -4029,152 +4050,152 @@
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>201</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>204</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>210</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>212</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>214</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>218</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>219</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>221</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>222</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -4182,46 +4203,46 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>225</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>229</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>233</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>234</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>236</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
         <x:v>56</x:v>
@@ -4232,7 +4253,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>239</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
         <x:v>57</x:v>
@@ -4244,13 +4265,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>240</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
         <x:v>56</x:v>
@@ -4262,19 +4283,19 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
@@ -4282,7 +4303,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>246</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
         <x:v>56</x:v>
@@ -4303,22 +4324,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>247</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>249</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>250</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>251</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
         <x:v>57</x:v>
@@ -4332,46 +4353,46 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>255</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>256</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>257</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>258</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>259</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>260</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>261</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>262</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
         <x:v>56</x:v>
@@ -4382,7 +4403,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>264</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
         <x:v>57</x:v>
@@ -4394,37 +4415,37 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>266</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>268</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>269</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>275</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -4432,28 +4453,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>276</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>277</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>278</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>280</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>282</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
         <x:v>57</x:v>
@@ -4482,19 +4503,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>284</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>285</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>287</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
         <x:v>56</x:v>
